--- a/biology/Botanique/Spermacoce_hexangularis/Spermacoce_hexangularis.xlsx
+++ b/biology/Botanique/Spermacoce_hexangularis/Spermacoce_hexangularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spermacoce hexangularis est une espèce de plantes herbacées néotropicales appartenant à la famille des Rubiaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1953, Lemée propose la description suivante pour Spermacoce hexangularis :
 « Tiges flexueuses 6-gônes éparses sur les plantes voisines, glabres ; feuilles pétiolées ovales aiguës, d'environ 35 mm. (pétiole compris) sur 10-12; capitules terminaux, fleurs à corolle bleue, anthères insérées dans la gorge. - Roura »
-— Albert Lemée, 1955.[4]</t>
+— Albert Lemée, 1955.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Spermacoce hexangularis ne serait connue que de Guyane.
 </t>
@@ -574,9 +590,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spermacoce hexangularis serait un synonyme de Spermacoce latifolia[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spermacoce hexangularis serait un synonyme de Spermacoce latifolia,.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est largement méconnue.
 </t>
@@ -636,7 +656,9 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1775, le botaniste Aublet a proposé le protologue suivants :
 « 8. SPERMACOCE (hexangularis) caule flexuoſo ; foliis ovato-acutis, petiolatis ; floribus terminalibus. (Tabula 22. Fig. 8.)
@@ -647,7 +669,7 @@
 Les fleurs pouffent également à l'extrémité des rameaux ; elles ſont de couleur bleue, &amp; leurs étamines ſont toutes les quatre placées à l'entrée du tube, &amp; au deſſous de ſes divisions.
 Elle croît dans les mêmes lieux.
 Les branches de toutes ces différentes eſpèces du même genre, ſont repréſentées de grandeur naturelle. On a groſſi ſeulement les différentes parties des fleurs. »
-— Fusée-Aublet, 1775[7].
+— Fusée-Aublet, 1775.
 « Toutes ces eſpèces de Spermacoce ſont employées en ptiſane par les Nègres de Madagaſcar, pour la cure de la gonorrhée. »
 — Fusée-Aublet, 1775.
 </t>
